--- a/biology/Botanique/Panic_à_touffe_dense/Panic_à_touffe_dense.xlsx
+++ b/biology/Botanique/Panic_à_touffe_dense/Panic_à_touffe_dense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Panic_%C3%A0_touffe_dense</t>
+          <t>Panic_à_touffe_dense</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Panic à touffe dense
 Dichanthelium implicatum, en français Panic à touffe dense, est une espèce de plantes de la famille des Poaceae et du genre Dichanthelium, originaire d'Amérique du Nord.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Panic_%C3%A0_touffe_dense</t>
+          <t>Panic_à_touffe_dense</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a pour aire de répartition l'Amérique du Nord[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a pour aire de répartition l'Amérique du Nord,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Panic_%C3%A0_touffe_dense</t>
+          <t>Panic_à_touffe_dense</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,17 +559,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Noms homotypiques
-Panicum implicatum Scribn., 1898 (basionyme)
+          <t>Noms homotypiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Panicum implicatum Scribn., 1898 (basionyme)
 Panicum unciphyllum var. implicatum (Scribn.) Scribn. &amp; Merr., 1901
 Panicum lindheimeri var. implicatum (Scribn.) Fernald, 1921
 Panicum lanuginosum var. implicatum (Scribn.) Fernald, 1934
 Dichanthelium acuminatum var. implicatum (Scribn.) Gould &amp; C.A.Clark, 1979
 Panicum acuminatum var. implicatum (Scribn.) Beetle, 1981
-Dichanthelium acuminatum subsp. implicatum (Scribn.) Freckmann &amp; Lelong, 2002[4]
-Synonymes hétérotypiques
-Panicum occidentale Scribn., 1899
-Panicum pacificum Hitchc. &amp; Chase, 1910[4]</t>
+Dichanthelium acuminatum subsp. implicatum (Scribn.) Freckmann &amp; Lelong, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Panic_à_touffe_dense</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Panic_%C3%A0_touffe_dense</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes hétérotypiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Panicum occidentale Scribn., 1899
+Panicum pacificum Hitchc. &amp; Chase, 1910</t>
         </is>
       </c>
     </row>
